--- a/cavicam/camp1/camp1_psi.xlsx
+++ b/cavicam/camp1/camp1_psi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hydraulics\cavicam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GWDG_owncloud\EAM\04\msc\hainich_hydraulics\cavicam\camp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A11874A-D4B3-411B-ADA5-B1065D8389A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B318443E-DC69-488D-8182-BAE116495F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,7 +975,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,9 +2131,7 @@
       <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="9">
-        <v>43</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" t="s">
         <v>71</v>
       </c>
@@ -2438,7 +2436,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,7 +2728,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,6 +2982,9 @@
       <c r="F13" t="s">
         <v>57</v>
       </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
       <c r="I13" t="s">
         <v>68</v>
       </c>
@@ -2997,6 +2998,9 @@
       </c>
       <c r="C14" s="8">
         <v>45443.473611111112</v>
+      </c>
+      <c r="H14">
+        <v>38</v>
       </c>
       <c r="I14" t="s">
         <v>78</v>
@@ -3012,7 +3016,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,6 +3296,9 @@
       <c r="C14" s="8">
         <v>45443.473611111112</v>
       </c>
+      <c r="H14">
+        <v>24.7</v>
+      </c>
       <c r="I14" t="s">
         <v>75</v>
       </c>
